--- a/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1779962485988616</v>
+        <v>0.17811705272443</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2704803185314899</v>
+        <v>0.2736280702769007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1848237693054536</v>
+        <v>0.1816727511577937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1959201999118828</v>
+        <v>0.19196824195031</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1091914127437397</v>
+        <v>0.1088672888125449</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1471358798028994</v>
+        <v>0.1488291818025893</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1192814654637112</v>
+        <v>0.1175056236091179</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.133640915169809</v>
+        <v>0.1320377419954458</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1499571832558349</v>
+        <v>0.1503232719314331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2182659935680344</v>
+        <v>0.2159380080733183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1590284942806534</v>
+        <v>0.1598382146968617</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1678147906757312</v>
+        <v>0.1690045111296456</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2538768749495648</v>
+        <v>0.2537821213269161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3484642624492226</v>
+        <v>0.3488367783653699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.257632674540565</v>
+        <v>0.2577137737933547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2655459231498596</v>
+        <v>0.2600159699212049</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.167540119397366</v>
+        <v>0.1645398334428989</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2098181785447115</v>
+        <v>0.2089485293421764</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1829568916545897</v>
+        <v>0.1793752251113402</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1762110411867514</v>
+        <v>0.1738803751793354</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1961579564461752</v>
+        <v>0.1979633891952711</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2678544957154822</v>
+        <v>0.2663045462606287</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2082028133634838</v>
+        <v>0.2067887952669829</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2089131497636418</v>
+        <v>0.2087851179216425</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1772682784222723</v>
+        <v>0.1799812466742948</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2325090043517313</v>
+        <v>0.2306546944685266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1351365997760234</v>
+        <v>0.1364841256167914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1292461613796192</v>
+        <v>0.1251478484238453</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09801392422389679</v>
+        <v>0.0975332202836893</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1683520150426367</v>
+        <v>0.172971018937092</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1074001733259509</v>
+        <v>0.1088991442386469</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.105794428506904</v>
+        <v>0.106220046347774</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.145573254569739</v>
+        <v>0.1440984918051182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2091919675230845</v>
+        <v>0.2074760431883842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1266805174070195</v>
+        <v>0.1273403870860026</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1204979567286297</v>
+        <v>0.121583907089476</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2389775567066199</v>
+        <v>0.2420233319787443</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2909461197279273</v>
+        <v>0.29504747252993</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1878377196300163</v>
+        <v>0.1896217227337069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1713037451236937</v>
+        <v>0.1709187293426634</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1449008833050614</v>
+        <v>0.1459740036706035</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2255024622660242</v>
+        <v>0.2268926601247664</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1553819696853438</v>
+        <v>0.1577521738381018</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1392201725759508</v>
+        <v>0.1395261748733078</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1837787968814189</v>
+        <v>0.1829084690192592</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2506557996512818</v>
+        <v>0.2488986791850916</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1630166819793399</v>
+        <v>0.1631392168052823</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1487700761644895</v>
+        <v>0.1493213345808592</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1683680853619037</v>
+        <v>0.1656111706817688</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2146441255345489</v>
+        <v>0.2126290680353314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1529487088208658</v>
+        <v>0.1592946068132612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09584363357459363</v>
+        <v>0.09413991834578903</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1414385717196249</v>
+        <v>0.1465733987127321</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1310955898911282</v>
+        <v>0.1300907313688612</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09222233789449946</v>
+        <v>0.09119172827834733</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07120710891454665</v>
+        <v>0.0722881099940471</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1635143797698232</v>
+        <v>0.1659746180399905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1791214086779067</v>
+        <v>0.1779239102661722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.132088126714287</v>
+        <v>0.1313581906249283</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08945863893026482</v>
+        <v>0.08765135955653397</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2363449725454963</v>
+        <v>0.2387231180954177</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2852952291393063</v>
+        <v>0.2843059588341491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2274917406363591</v>
+        <v>0.2278734195495094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1464377090811369</v>
+        <v>0.1471167792526185</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.203743328621926</v>
+        <v>0.2069473749315199</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1874216995149165</v>
+        <v>0.1871235684217659</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1453060381982308</v>
+        <v>0.1458800153077451</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.107156712022943</v>
+        <v>0.1094390947671403</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2101534867455954</v>
+        <v>0.2113242677724572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2268553572056165</v>
+        <v>0.2252998092359597</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1752633192297793</v>
+        <v>0.1743961230387657</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1210036514351419</v>
+        <v>0.119340871964589</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1298675851724023</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.103996472857906</v>
+        <v>0.1039964728579061</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1689579112506423</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1544961507389873</v>
+        <v>0.1537019500971837</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.155749066956186</v>
+        <v>0.1600046050666065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1379329942045356</v>
+        <v>0.1347617837772026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1515789655037152</v>
+        <v>0.1477783354639092</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1354767706629471</v>
+        <v>0.1349437965363627</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1436233456082647</v>
+        <v>0.1438167448949625</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1055316646240288</v>
+        <v>0.1067350717039758</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08835608564171442</v>
+        <v>0.08962179900859989</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1521355477736306</v>
+        <v>0.1517645451047888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1582346615670463</v>
+        <v>0.1588217284461663</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1271687181110668</v>
+        <v>0.1281357537807662</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1240047783651734</v>
+        <v>0.1211440854697047</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2078258736795638</v>
+        <v>0.2097243872386078</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2121899139603179</v>
+        <v>0.2145243693192459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1889650312919534</v>
+        <v>0.1894400561580165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2034356600444322</v>
+        <v>0.1997574127743606</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1861643418635363</v>
+        <v>0.186125766261512</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1955202274959035</v>
+        <v>0.1936365973512668</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1520663552487436</v>
+        <v>0.1542048082923611</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1194117691105579</v>
+        <v>0.1220769564012467</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1878963801027428</v>
+        <v>0.1890282340797832</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1962377624692494</v>
+        <v>0.1951378036921457</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1634230927684006</v>
+        <v>0.1639906515923195</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1510520153469897</v>
+        <v>0.1512502254735691</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>85053</v>
+        <v>85111</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>163898</v>
+        <v>165805</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>97031</v>
+        <v>95377</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>129215</v>
+        <v>126609</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58756</v>
+        <v>58582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>93549</v>
+        <v>94626</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>64932</v>
+        <v>63966</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>94370</v>
+        <v>93238</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152348</v>
+        <v>152720</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>271032</v>
+        <v>268141</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>170058</v>
+        <v>170924</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>229181</v>
+        <v>230806</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121312</v>
+        <v>121266</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>211152</v>
+        <v>211378</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>135255</v>
+        <v>135298</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>175136</v>
+        <v>171489</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>90154</v>
+        <v>88540</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>133403</v>
+        <v>132850</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>99595</v>
+        <v>97645</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>124431</v>
+        <v>122785</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>199285</v>
+        <v>201119</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332609</v>
+        <v>330684</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>222643</v>
+        <v>221131</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>285309</v>
+        <v>285134</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>128010</v>
+        <v>129969</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>201585</v>
+        <v>199977</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>110318</v>
+        <v>111418</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>131337</v>
+        <v>127173</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78825</v>
+        <v>78439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>150966</v>
+        <v>155108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>93049</v>
+        <v>94347</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110850</v>
+        <v>111296</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>222196</v>
+        <v>219945</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>368958</v>
+        <v>365931</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>213168</v>
+        <v>214278</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>248703</v>
+        <v>250945</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>172572</v>
+        <v>174772</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>252250</v>
+        <v>255806</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>153341</v>
+        <v>154797</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>174075</v>
+        <v>173684</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>116533</v>
+        <v>117396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>202215</v>
+        <v>203461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>134619</v>
+        <v>136672</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>145873</v>
+        <v>146193</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>280512</v>
+        <v>279183</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>442089</v>
+        <v>438990</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>274311</v>
+        <v>274517</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>307056</v>
+        <v>308194</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>91776</v>
+        <v>90273</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>136521</v>
+        <v>135239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84177</v>
+        <v>87669</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74184</v>
+        <v>72865</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>82686</v>
+        <v>85688</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>88948</v>
+        <v>88266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53465</v>
+        <v>52867</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56634</v>
+        <v>57494</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>184722</v>
+        <v>187501</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>235460</v>
+        <v>233886</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>149273</v>
+        <v>148448</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>140392</v>
+        <v>137556</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>128829</v>
+        <v>130125</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>181457</v>
+        <v>180828</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>125202</v>
+        <v>125412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>113344</v>
+        <v>113870</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>119110</v>
+        <v>120983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>127165</v>
+        <v>126963</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>84239</v>
+        <v>84572</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85227</v>
+        <v>87042</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>237410</v>
+        <v>238733</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>298208</v>
+        <v>296163</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>198065</v>
+        <v>197085</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>189897</v>
+        <v>187288</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>109644</v>
+        <v>109080</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>125483</v>
+        <v>128912</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106572</v>
+        <v>104122</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>143509</v>
+        <v>139911</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110278</v>
+        <v>109844</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>134172</v>
+        <v>134353</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>92419</v>
+        <v>93473</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95086</v>
+        <v>96448</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>231807</v>
+        <v>231242</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>275308</v>
+        <v>276329</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>209623</v>
+        <v>211217</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>250853</v>
+        <v>245066</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>147492</v>
+        <v>148839</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>170956</v>
+        <v>172837</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146001</v>
+        <v>146368</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>192605</v>
+        <v>189122</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>151537</v>
+        <v>151506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>182654</v>
+        <v>180894</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>133172</v>
+        <v>135044</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>128507</v>
+        <v>131376</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>286295</v>
+        <v>288020</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>341428</v>
+        <v>339514</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>269384</v>
+        <v>270319</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>305568</v>
+        <v>305969</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
     </row>
     <row r="24">
